--- a/singinsystem/bin/Debug/Template/BaoCaoXuongCa.xlsx
+++ b/singinsystem/bin/Debug/Template/BaoCaoXuongCa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namku\Desktop\PhanMem\B91\B91\B9\B9\21CT114\QuanLyBanHang\QuanLyBanHang\bin\Debug\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\singinsystem\singinsystem\bin\Debug\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4865259-F3C1-452F-BE0A-9CEAC5D924FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDCCCAE-4527-4FB3-B889-06892CDA2E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -90,6 +93,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -373,14 +377,14 @@
   <dimension ref="A1:E393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="21.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26" style="4" customWidth="1"/>
     <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -392,10 +396,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
